--- a/public/data/yield_loss/yield_table_swaziland.xlsx
+++ b/public/data/yield_loss/yield_table_swaziland.xlsx
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.62</v>
+        <v>24.51</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0.05</v>
       </c>
       <c r="K2" t="n">
-        <v>6.72</v>
+        <v>6.7</v>
       </c>
       <c r="L2" t="n">
         <v>17.82</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="L3" t="n">
         <v>0.05</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>6.98</v>
+        <v>6.95</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>6.98</v>
+        <v>6.95</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>140.89</v>
+        <v>138.84</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>103.17</v>
+        <v>101.35</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0.52</v>
       </c>
       <c r="K12" t="n">
-        <v>8.59</v>
+        <v>8.58</v>
       </c>
       <c r="L12" t="n">
-        <v>16.74</v>
+        <v>16.65</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>13.49</v>
+        <v>13.42</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>1.32</v>
       </c>
       <c r="K14" t="n">
-        <v>7.42</v>
+        <v>7.4</v>
       </c>
       <c r="L14" t="n">
-        <v>34.42</v>
+        <v>34.29</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>64.15</v>
+        <v>64.06</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
